--- a/conf-core/src/test/resources/dataloader/properties-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/properties-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-1425" yWindow="2010" windowWidth="19020" windowHeight="10110"/>
   </bookViews>
@@ -20,7 +25,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="property" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="property" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="437" sourceFile="H:\dev\conf\conf-dl\property.txt">
       <textFields count="7">
         <textField/>
@@ -334,19 +339,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -365,31 +364,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,6 +381,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -451,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,9 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -710,23 +693,23 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>41304</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -746,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -763,8 +746,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -783,8 +766,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -802,10 +785,10 @@
       <c r="F9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -820,10 +803,10 @@
       <c r="F10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -842,8 +825,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -862,8 +845,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -882,8 +865,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -902,8 +885,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -922,8 +905,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -942,8 +925,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -962,8 +945,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -982,8 +965,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
@@ -1002,8 +985,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
@@ -1022,8 +1005,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
@@ -1042,8 +1025,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
@@ -1062,8 +1045,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
@@ -1082,8 +1065,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -1099,8 +1082,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
@@ -1119,8 +1102,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -1139,8 +1122,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
@@ -1159,8 +1142,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
@@ -1179,8 +1162,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
@@ -1199,29 +1182,28 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>87</v>
       </c>
       <c r="F30" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
@@ -1239,10 +1221,9 @@
       <c r="F31" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
@@ -1254,16 +1235,15 @@
       <c r="D32" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>88</v>
       </c>
       <c r="F32" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
@@ -1281,13 +1261,12 @@
       <c r="F33" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
       <c r="C34" t="s">
@@ -1296,16 +1275,15 @@
       <c r="D34" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>27</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
@@ -1320,10 +1298,9 @@
       <c r="F35" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36" t="s">
@@ -1338,13 +1315,12 @@
       <c r="F36" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="s">
@@ -1359,13 +1335,12 @@
       <c r="F37" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
@@ -1380,9 +1355,8 @@
       <c r="F38" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>

--- a/conf-core/src/test/resources/dataloader/properties-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/properties-test.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
   <si>
     <t>HEADER</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Strings List</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>UNIVERSAL</t>
   </si>
 </sst>
 </file>
@@ -368,9 +377,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -680,9 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -694,12 +706,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1242,7 +1254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1282,82 +1294,116 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>90</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F38" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="G38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>73</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>90</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>89</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="F37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" t="s">
         <v>89</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>78</v>
       </c>
     </row>

--- a/conf-core/src/test/resources/dataloader/properties-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/properties-test.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="property" localSheetId="0">Sheet1!$B$6:$H$29</definedName>
+    <definedName name="property" localSheetId="0">Sheet1!$B$6:$G$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>HEADER</t>
   </si>
@@ -56,9 +56,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>ASSOCIATION</t>
-  </si>
-  <si>
     <t>UNIT</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>association</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -311,16 +305,7 @@
     <t>tesla-per-square-meter</t>
   </si>
   <si>
-    <t>SLOT</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>TYPE</t>
-  </si>
-  <si>
-    <t>TYPE_DEVICE</t>
   </si>
   <si>
     <t>Double</t>
@@ -690,38 +675,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>41304</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -737,565 +719,478 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
         <v>86</v>
       </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1312,104 +1207,89 @@
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
+      <c r="E39" t="s">
+        <v>89</v>
       </c>
       <c r="F39" t="s">
         <v>94</v>
       </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>76</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
